--- a/TestData/Data.xlsx
+++ b/TestData/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Visionfolder\Batch_18_AutomationTest\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5600BEC9-C453-456A-B529-738E0F451B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C4213F-9AAE-44C1-B5D7-9D61F37FFE6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,22 +26,58 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>BugSpotter</t>
   </si>
   <si>
-    <t>Test1234</t>
+    <t>Test1235</t>
+  </si>
+  <si>
+    <t>Test1236</t>
+  </si>
+  <si>
+    <t>Test1237</t>
+  </si>
+  <si>
+    <t>Test1238</t>
+  </si>
+  <si>
+    <t>Test1239</t>
+  </si>
+  <si>
+    <t>Test1240</t>
+  </si>
+  <si>
+    <t>Test1241</t>
+  </si>
+  <si>
+    <t>Test1242</t>
+  </si>
+  <si>
+    <t>Test1243</t>
+  </si>
+  <si>
+    <t>Test1244</t>
+  </si>
+  <si>
+    <t>12345678</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -67,8 +103,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -349,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -364,11 +401,92 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/TestData/Data.xlsx
+++ b/TestData/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Visionfolder\Batch_18_AutomationTest\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C4213F-9AAE-44C1-B5D7-9D61F37FFE6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D9FACC-8242-4EAD-852B-7D01F9316DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
   <si>
     <t>BugSpotter</t>
   </si>
@@ -62,13 +62,37 @@
   </si>
   <si>
     <t>12345678</t>
+  </si>
+  <si>
+    <t>Govind</t>
+  </si>
+  <si>
+    <t>Patil</t>
+  </si>
+  <si>
+    <t>Test123@gmail.com</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>AMERICAN SAMOA</t>
+  </si>
+  <si>
+    <t>Test_Bug</t>
+  </si>
+  <si>
+    <t>Test_Bug123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +102,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -100,14 +132,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -388,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -493,14 +528,81 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E4D120-BD43-4269-9A85-D9C4F82FCEFF}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{3FA04666-C5E5-4F3B-A572-51FFD98D920F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>